--- a/STUDIO/org.openl.rules.test/test-resources/functionality/CastNumbers.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/CastNumbers.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvlad\.openl-webstudio\user-workspace\admin\EPBDS-9041_16\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B75C4D-3945-4B61-9A92-9D6D2976005E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CastNumbers" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="109">
   <si>
     <t>X</t>
   </si>
@@ -251,12 +265,102 @@
   </si>
   <si>
     <t>Spreadsheet SpreadsheetResult CastNumbers ( BigDecimal v2 )</t>
+  </si>
+  <si>
+    <t>_description_</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>AF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -339,9 +443,16 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -352,20 +463,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -412,24 +510,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="ACT_H" xfId="1"/>
+    <cellStyle name="ACT_H" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -478,7 +579,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -511,9 +612,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -546,6 +664,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -721,50 +856,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:BP43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:BQ43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="17.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="19" width="20" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="19.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="21.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="9.140625" style="1" collapsed="1"/>
-    <col min="27" max="68" width="9.140625" style="1"/>
-    <col min="69" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" width="6.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="18.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="17.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="18.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="18.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="19.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="20" width="20" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="19.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="19.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="20" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="20.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="21.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.109375" style="1" collapsed="1"/>
+    <col min="28" max="69" width="9.109375" style="1"/>
+    <col min="70" max="16384" width="9.109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -782,154 +917,155 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="S5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="V5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="W5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="X5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="Y5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Z5" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>77</v>
       </c>
@@ -955,187 +1091,194 @@
       <c r="V9" s="13"/>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
-      <c r="Y9" s="14"/>
-    </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="14"/>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="7" t="str">
-        <f>"_res_.$"&amp;C$4&amp;"$"&amp;$B5</f>
+      <c r="D10" s="7" t="str">
+        <f>"_res_.$"&amp;D$4&amp;"$"&amp;$C5</f>
         <v>_res_.$X$Y</v>
       </c>
-      <c r="D10" s="7" t="str">
-        <f>"_res_.$"&amp;D$4&amp;"$"&amp;$B5</f>
+      <c r="E10" s="7" t="str">
+        <f>"_res_.$"&amp;E$4&amp;"$"&amp;$C5</f>
         <v>_res_.$b2$Y</v>
       </c>
-      <c r="E10" s="7" t="str">
-        <f>"_res_.$"&amp;E$4&amp;"$"&amp;$B5</f>
+      <c r="F10" s="7" t="str">
+        <f>"_res_.$"&amp;F$4&amp;"$"&amp;$C5</f>
         <v>_res_.$s2$Y</v>
       </c>
-      <c r="F10" s="7" t="str">
-        <f t="shared" ref="F10:Y10" si="0">"_res_.$"&amp;F$4&amp;"$"&amp;$B5</f>
+      <c r="G10" s="7" t="str">
+        <f>"_res_.$"&amp;G$4&amp;"$"&amp;$C5</f>
         <v>_res_.$i2$Y</v>
       </c>
-      <c r="G10" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="H10" s="7" t="str">
+        <f>"_res_.$"&amp;H$4&amp;"$"&amp;$C5</f>
         <v>_res_.$l2$Y</v>
       </c>
-      <c r="H10" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="I10" s="7" t="str">
+        <f>"_res_.$"&amp;I$4&amp;"$"&amp;$C5</f>
         <v>_res_.$f2$Y</v>
       </c>
-      <c r="I10" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="J10" s="7" t="str">
+        <f>"_res_.$"&amp;J$4&amp;"$"&amp;$C5</f>
         <v>_res_.$d2$Y</v>
       </c>
-      <c r="J10" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="K10" s="7" t="str">
+        <f>"_res_.$"&amp;K$4&amp;"$"&amp;$C5</f>
         <v>_res_.$B2$Y</v>
       </c>
-      <c r="K10" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="L10" s="7" t="str">
+        <f>"_res_.$"&amp;L$4&amp;"$"&amp;$C5</f>
         <v>_res_.$S2$Y</v>
       </c>
-      <c r="L10" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="M10" s="7" t="str">
+        <f>"_res_.$"&amp;M$4&amp;"$"&amp;$C5</f>
         <v>_res_.$I2$Y</v>
       </c>
-      <c r="M10" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="N10" s="7" t="str">
+        <f>"_res_.$"&amp;N$4&amp;"$"&amp;$C5</f>
         <v>_res_.$L2$Y</v>
       </c>
-      <c r="N10" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="O10" s="7" t="str">
+        <f>"_res_.$"&amp;O$4&amp;"$"&amp;$C5</f>
         <v>_res_.$F2$Y</v>
       </c>
-      <c r="O10" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="P10" s="7" t="str">
+        <f>"_res_.$"&amp;P$4&amp;"$"&amp;$C5</f>
         <v>_res_.$D2$Y</v>
       </c>
-      <c r="P10" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="Q10" s="7" t="str">
+        <f>"_res_.$"&amp;Q$4&amp;"$"&amp;$C5</f>
         <v>_res_.$BI2$Y</v>
       </c>
-      <c r="Q10" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="R10" s="7" t="str">
+        <f>"_res_.$"&amp;R$4&amp;"$"&amp;$C5</f>
         <v>_res_.$BD2$Y</v>
       </c>
-      <c r="R10" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="S10" s="7" t="str">
+        <f>"_res_.$"&amp;S$4&amp;"$"&amp;$C5</f>
         <v>_res_.$BV2$Y</v>
       </c>
-      <c r="S10" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="T10" s="7" t="str">
+        <f>"_res_.$"&amp;T$4&amp;"$"&amp;$C5</f>
         <v>_res_.$SV2$Y</v>
       </c>
-      <c r="T10" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="U10" s="7" t="str">
+        <f>"_res_.$"&amp;U$4&amp;"$"&amp;$C5</f>
         <v>_res_.$IV2$Y</v>
       </c>
-      <c r="U10" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="V10" s="7" t="str">
+        <f>"_res_.$"&amp;V$4&amp;"$"&amp;$C5</f>
         <v>_res_.$LV2$Y</v>
       </c>
-      <c r="V10" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="W10" s="7" t="str">
+        <f>"_res_.$"&amp;W$4&amp;"$"&amp;$C5</f>
         <v>_res_.$FV2$Y</v>
       </c>
-      <c r="W10" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="X10" s="7" t="str">
+        <f>"_res_.$"&amp;X$4&amp;"$"&amp;$C5</f>
         <v>_res_.$DV2$Y</v>
       </c>
-      <c r="X10" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="Y10" s="7" t="str">
+        <f>"_res_.$"&amp;Y$4&amp;"$"&amp;$C5</f>
         <v>_res_.$BIV2$Y</v>
       </c>
-      <c r="Y10" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="Z10" s="7" t="str">
+        <f>"_res_.$"&amp;Z$4&amp;"$"&amp;$C5</f>
         <v>_res_.$BDV2$Y</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>1</v>
-      </c>
       <c r="E11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>3</v>
-      </c>
       <c r="G11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="N11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="O11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="R11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="R11" s="7" t="s">
+      <c r="S11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="T11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="T11" s="7" t="s">
+      <c r="U11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="U11" s="7" t="s">
+      <c r="V11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="V11" s="7" t="s">
+      <c r="W11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="W11" s="7" t="s">
+      <c r="X11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="X11" s="7" t="s">
+      <c r="Y11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Y11" s="7" t="s">
+      <c r="Z11" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
         <v>49</v>
       </c>
@@ -1199,15 +1342,18 @@
       <c r="Y12" s="9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B13" s="9" t="s">
+      <c r="Z12" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="D13" s="9"/>
       <c r="E13" s="9" t="s">
         <v>50</v>
       </c>
@@ -1271,17 +1417,20 @@
       <c r="Y13" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B14" s="9" t="s">
+      <c r="Z13" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>51</v>
@@ -1296,10 +1445,10 @@
         <v>51</v>
       </c>
       <c r="J14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>51</v>
@@ -1320,10 +1469,10 @@
         <v>51</v>
       </c>
       <c r="R14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="S14" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="T14" s="9" t="s">
         <v>51</v>
@@ -1343,15 +1492,18 @@
       <c r="Y14" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B15" s="9" t="s">
+      <c r="Z14" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
         <v>52</v>
       </c>
@@ -1415,15 +1567,18 @@
       <c r="Y15" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B16" s="9" t="s">
+      <c r="Z15" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
         <v>53</v>
       </c>
@@ -1487,17 +1642,20 @@
       <c r="Y16" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B17" s="9" t="s">
+      <c r="Z16" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>54</v>
@@ -1512,10 +1670,10 @@
         <v>54</v>
       </c>
       <c r="J17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>54</v>
@@ -1536,10 +1694,10 @@
         <v>54</v>
       </c>
       <c r="R17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="S17" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="S17" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="T17" s="9" t="s">
         <v>54</v>
@@ -1559,17 +1717,20 @@
       <c r="Y17" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B18" s="10" t="s">
+      <c r="Z17" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>55</v>
@@ -1583,11 +1744,11 @@
       <c r="I18" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="L18" s="10" t="s">
         <v>55</v>
@@ -1607,11 +1768,11 @@
       <c r="Q18" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="R18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S18" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="T18" s="10" t="s">
         <v>55</v>
@@ -1631,17 +1792,20 @@
       <c r="Y18" s="10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B19" s="10" t="s">
+      <c r="Z18" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>56</v>
@@ -1655,11 +1819,11 @@
       <c r="I19" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>56</v>
@@ -1679,11 +1843,11 @@
       <c r="Q19" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="R19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="S19" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="S19" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="T19" s="10" t="s">
         <v>56</v>
@@ -1703,20 +1867,23 @@
       <c r="Y19" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B20" s="10" t="s">
+      <c r="Z19" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>57</v>
@@ -1727,14 +1894,14 @@
       <c r="I20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="L20" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>57</v>
@@ -1751,14 +1918,14 @@
       <c r="Q20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="R20" s="6" t="s">
+      <c r="R20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="S20" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="S20" s="10" t="s">
+      <c r="T20" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="T20" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="U20" s="10" t="s">
         <v>57</v>
@@ -1775,17 +1942,20 @@
       <c r="Y20" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B21" s="10" t="s">
+      <c r="Z20" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>58</v>
@@ -1799,11 +1969,11 @@
       <c r="I21" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>58</v>
@@ -1823,11 +1993,11 @@
       <c r="Q21" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="R21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="S21" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="T21" s="10" t="s">
         <v>58</v>
@@ -1847,17 +2017,20 @@
       <c r="Y21" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B22" s="10" t="s">
+      <c r="Z21" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>59</v>
@@ -1871,11 +2044,11 @@
       <c r="I22" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="L22" s="10" t="s">
         <v>59</v>
@@ -1895,11 +2068,11 @@
       <c r="Q22" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="R22" s="6" t="s">
+      <c r="R22" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="S22" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="T22" s="10" t="s">
         <v>59</v>
@@ -1919,20 +2092,23 @@
       <c r="Y22" s="10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B23" s="10" t="s">
+      <c r="Z22" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="F23" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>60</v>
@@ -1943,14 +2119,14 @@
       <c r="I23" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="L23" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="M23" s="10" t="s">
         <v>60</v>
@@ -1967,14 +2143,14 @@
       <c r="Q23" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="R23" s="6" t="s">
+      <c r="R23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="S23" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="S23" s="10" t="s">
+      <c r="T23" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="T23" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="U23" s="10" t="s">
         <v>60</v>
@@ -1991,20 +2167,23 @@
       <c r="Y23" s="10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B24" s="9" t="s">
+      <c r="Z23" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="D24" s="9"/>
       <c r="E24" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>61</v>
+      <c r="F24" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>61</v>
@@ -2015,14 +2194,14 @@
       <c r="I24" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>73</v>
+      <c r="J24" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="L24" s="9" t="s">
-        <v>61</v>
+      <c r="L24" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>61</v>
@@ -2039,14 +2218,14 @@
       <c r="Q24" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="R24" s="6" t="s">
-        <v>73</v>
+      <c r="R24" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="S24" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="T24" s="9" t="s">
-        <v>61</v>
+      <c r="T24" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="U24" s="9" t="s">
         <v>61</v>
@@ -2063,20 +2242,23 @@
       <c r="Y24" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B25" s="9" t="s">
+      <c r="Z24" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="6" t="s">
-        <v>74</v>
-      </c>
+      <c r="D25" s="9"/>
       <c r="E25" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>62</v>
+      <c r="F25" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>62</v>
@@ -2087,14 +2269,14 @@
       <c r="I25" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="J25" s="6" t="s">
-        <v>74</v>
+      <c r="J25" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L25" s="9" t="s">
-        <v>62</v>
+      <c r="L25" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="M25" s="9" t="s">
         <v>62</v>
@@ -2111,14 +2293,14 @@
       <c r="Q25" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="R25" s="6" t="s">
-        <v>74</v>
+      <c r="R25" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="S25" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="T25" s="9" t="s">
-        <v>62</v>
+      <c r="T25" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="U25" s="9" t="s">
         <v>62</v>
@@ -2135,23 +2317,26 @@
       <c r="Y25" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B26" s="9" t="s">
+      <c r="Z25" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="6" t="s">
-        <v>74</v>
-      </c>
+      <c r="D26" s="9"/>
       <c r="E26" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>63</v>
@@ -2159,17 +2344,17 @@
       <c r="I26" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="J26" s="6" t="s">
-        <v>74</v>
+      <c r="J26" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>74</v>
       </c>
       <c r="L26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M26" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="N26" s="9" t="s">
         <v>63</v>
@@ -2183,17 +2368,17 @@
       <c r="Q26" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R26" s="6" t="s">
-        <v>74</v>
+      <c r="R26" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="S26" s="6" t="s">
         <v>74</v>
       </c>
       <c r="T26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="U26" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="U26" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="V26" s="9" t="s">
         <v>63</v>
@@ -2207,20 +2392,23 @@
       <c r="Y26" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B27" s="9" t="s">
+      <c r="Z26" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="6" t="s">
-        <v>75</v>
-      </c>
+      <c r="D27" s="9"/>
       <c r="E27" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>64</v>
+      <c r="F27" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>64</v>
@@ -2231,14 +2419,14 @@
       <c r="I27" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>75</v>
+      <c r="J27" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L27" s="9" t="s">
-        <v>64</v>
+      <c r="L27" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>64</v>
@@ -2255,14 +2443,14 @@
       <c r="Q27" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="R27" s="6" t="s">
-        <v>75</v>
+      <c r="R27" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="S27" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="T27" s="9" t="s">
-        <v>64</v>
+      <c r="T27" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="U27" s="9" t="s">
         <v>64</v>
@@ -2279,20 +2467,23 @@
       <c r="Y27" s="9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B28" s="9" t="s">
+      <c r="Z27" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="D28" s="9"/>
       <c r="E28" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>65</v>
+      <c r="F28" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>65</v>
@@ -2303,14 +2494,14 @@
       <c r="I28" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J28" s="6" t="s">
-        <v>76</v>
+      <c r="J28" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="L28" s="9" t="s">
-        <v>65</v>
+      <c r="L28" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>65</v>
@@ -2327,14 +2518,14 @@
       <c r="Q28" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="R28" s="6" t="s">
-        <v>76</v>
+      <c r="R28" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="S28" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="T28" s="9" t="s">
-        <v>65</v>
+      <c r="T28" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="U28" s="9" t="s">
         <v>65</v>
@@ -2351,23 +2542,26 @@
       <c r="Y28" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B29" s="9" t="s">
+      <c r="Z28" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="D29" s="9"/>
       <c r="E29" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>66</v>
@@ -2375,17 +2569,17 @@
       <c r="I29" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>73</v>
+      <c r="J29" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>73</v>
       </c>
       <c r="L29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M29" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="N29" s="9" t="s">
         <v>66</v>
@@ -2399,17 +2593,17 @@
       <c r="Q29" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="R29" s="6" t="s">
-        <v>73</v>
+      <c r="R29" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="S29" s="6" t="s">
         <v>73</v>
       </c>
       <c r="T29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="U29" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="U29" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="V29" s="9" t="s">
         <v>66</v>
@@ -2423,23 +2617,26 @@
       <c r="Y29" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B30" s="10" t="s">
+      <c r="Z29" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="D30" s="9"/>
       <c r="E30" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G30" s="10" t="s">
-        <v>67</v>
+      <c r="G30" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>67</v>
@@ -2447,8 +2644,8 @@
       <c r="I30" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J30" s="6" t="s">
-        <v>73</v>
+      <c r="J30" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>73</v>
@@ -2456,8 +2653,8 @@
       <c r="L30" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M30" s="10" t="s">
-        <v>67</v>
+      <c r="M30" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="N30" s="10" t="s">
         <v>67</v>
@@ -2471,8 +2668,8 @@
       <c r="Q30" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="R30" s="6" t="s">
-        <v>73</v>
+      <c r="R30" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="S30" s="6" t="s">
         <v>73</v>
@@ -2480,8 +2677,8 @@
       <c r="T30" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="U30" s="10" t="s">
-        <v>67</v>
+      <c r="U30" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="V30" s="10" t="s">
         <v>67</v>
@@ -2495,23 +2692,26 @@
       <c r="Y30" s="10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B31" s="10" t="s">
+      <c r="Z30" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="6" t="s">
-        <v>74</v>
-      </c>
+      <c r="D31" s="9"/>
       <c r="E31" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G31" s="10" t="s">
-        <v>68</v>
+      <c r="G31" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>68</v>
@@ -2519,8 +2719,8 @@
       <c r="I31" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="J31" s="6" t="s">
-        <v>74</v>
+      <c r="J31" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>74</v>
@@ -2528,8 +2728,8 @@
       <c r="L31" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="M31" s="10" t="s">
-        <v>68</v>
+      <c r="M31" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="N31" s="10" t="s">
         <v>68</v>
@@ -2543,8 +2743,8 @@
       <c r="Q31" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="R31" s="6" t="s">
-        <v>74</v>
+      <c r="R31" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="S31" s="6" t="s">
         <v>74</v>
@@ -2552,8 +2752,8 @@
       <c r="T31" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="U31" s="10" t="s">
-        <v>68</v>
+      <c r="U31" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="V31" s="10" t="s">
         <v>68</v>
@@ -2567,32 +2767,35 @@
       <c r="Y31" s="10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B32" s="10" t="s">
+      <c r="Z31" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="6" t="s">
-        <v>74</v>
-      </c>
+      <c r="D32" s="9"/>
       <c r="E32" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J32" s="6" t="s">
-        <v>74</v>
+      <c r="J32" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>74</v>
@@ -2600,11 +2803,11 @@
       <c r="L32" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="M32" s="10" t="s">
+      <c r="M32" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N32" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="N32" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="O32" s="10" t="s">
         <v>69</v>
@@ -2615,8 +2818,8 @@
       <c r="Q32" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="R32" s="6" t="s">
-        <v>74</v>
+      <c r="R32" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="S32" s="6" t="s">
         <v>74</v>
@@ -2624,11 +2827,11 @@
       <c r="T32" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="U32" s="10" t="s">
+      <c r="U32" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="V32" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="V32" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="W32" s="10" t="s">
         <v>69</v>
@@ -2639,23 +2842,26 @@
       <c r="Y32" s="10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B33" s="10" t="s">
+      <c r="Z32" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="6" t="s">
-        <v>75</v>
-      </c>
+      <c r="D33" s="9"/>
       <c r="E33" s="6" t="s">
         <v>75</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="10" t="s">
-        <v>70</v>
+      <c r="G33" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="H33" s="10" t="s">
         <v>70</v>
@@ -2663,8 +2869,8 @@
       <c r="I33" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J33" s="6" t="s">
-        <v>75</v>
+      <c r="J33" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>75</v>
@@ -2672,8 +2878,8 @@
       <c r="L33" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M33" s="10" t="s">
-        <v>70</v>
+      <c r="M33" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="N33" s="10" t="s">
         <v>70</v>
@@ -2687,8 +2893,8 @@
       <c r="Q33" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="R33" s="6" t="s">
-        <v>75</v>
+      <c r="R33" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="S33" s="6" t="s">
         <v>75</v>
@@ -2696,8 +2902,8 @@
       <c r="T33" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="U33" s="10" t="s">
-        <v>70</v>
+      <c r="U33" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="V33" s="10" t="s">
         <v>70</v>
@@ -2711,23 +2917,26 @@
       <c r="Y33" s="10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B34" s="10" t="s">
+      <c r="Z33" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="D34" s="9"/>
       <c r="E34" s="6" t="s">
         <v>76</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G34" s="10" t="s">
-        <v>71</v>
+      <c r="G34" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>71</v>
@@ -2735,8 +2944,8 @@
       <c r="I34" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J34" s="6" t="s">
-        <v>76</v>
+      <c r="J34" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>76</v>
@@ -2744,8 +2953,8 @@
       <c r="L34" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="M34" s="10" t="s">
-        <v>71</v>
+      <c r="M34" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="N34" s="10" t="s">
         <v>71</v>
@@ -2759,8 +2968,8 @@
       <c r="Q34" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="R34" s="6" t="s">
-        <v>76</v>
+      <c r="R34" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="S34" s="6" t="s">
         <v>76</v>
@@ -2768,8 +2977,8 @@
       <c r="T34" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="U34" s="10" t="s">
-        <v>71</v>
+      <c r="U34" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="V34" s="10" t="s">
         <v>71</v>
@@ -2783,32 +2992,35 @@
       <c r="Y34" s="10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B35" s="10" t="s">
+      <c r="Z34" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="D35" s="9"/>
       <c r="E35" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H35" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="J35" s="6" t="s">
-        <v>73</v>
+      <c r="J35" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>73</v>
@@ -2816,11 +3028,11 @@
       <c r="L35" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M35" s="10" t="s">
+      <c r="M35" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N35" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="O35" s="10" t="s">
         <v>72</v>
@@ -2831,8 +3043,8 @@
       <c r="Q35" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="R35" s="6" t="s">
-        <v>73</v>
+      <c r="R35" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="S35" s="6" t="s">
         <v>73</v>
@@ -2840,11 +3052,11 @@
       <c r="T35" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="U35" s="10" t="s">
+      <c r="U35" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="V35" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="V35" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="W35" s="10" t="s">
         <v>72</v>
@@ -2855,15 +3067,18 @@
       <c r="Y35" s="10" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B36" s="8">
-        <v>1</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8">
-        <v>1</v>
-      </c>
+      <c r="Z35" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="8">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8"/>
       <c r="E36" s="8">
         <v>1</v>
       </c>
@@ -2927,15 +3142,18 @@
       <c r="Y36" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B37" s="8">
+      <c r="Z36" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="8">
         <v>-1</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8">
-        <v>-1</v>
-      </c>
+      <c r="D37" s="8"/>
       <c r="E37" s="8">
         <v>-1</v>
       </c>
@@ -2999,15 +3217,18 @@
       <c r="Y37" s="8">
         <v>-1</v>
       </c>
-    </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B38" s="7">
+      <c r="Z37" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="7">
         <v>0</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7">
-        <v>0</v>
-      </c>
+      <c r="D38" s="7"/>
       <c r="E38" s="7">
         <v>0</v>
       </c>
@@ -3071,15 +3292,18 @@
       <c r="Y38" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B39" s="7">
+      <c r="Z38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="7">
         <v>-3</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7">
-        <v>-3</v>
-      </c>
+      <c r="D39" s="7"/>
       <c r="E39" s="7">
         <v>-3</v>
       </c>
@@ -3143,15 +3367,18 @@
       <c r="Y39" s="7">
         <v>-3</v>
       </c>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B40" s="7">
-        <v>3</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7">
-        <v>3</v>
-      </c>
+      <c r="Z39" s="7">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="7">
+        <v>3</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="7">
         <v>3</v>
       </c>
@@ -3215,16 +3442,31 @@
       <c r="Y40" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B41" s="9"/>
+      <c r="Z40" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="E41" s="9">
+        <v>0</v>
+      </c>
+      <c r="F41" s="9">
+        <v>0</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41" s="9">
+        <v>0</v>
+      </c>
+      <c r="I41" s="9">
+        <v>0</v>
+      </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
@@ -3241,15 +3483,16 @@
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B42" s="9">
+      <c r="Z41" s="9"/>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="9">
         <v>1.5</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9">
-        <v>1</v>
-      </c>
+      <c r="D42" s="9"/>
       <c r="E42" s="9">
         <v>1</v>
       </c>
@@ -3260,13 +3503,13 @@
         <v>1</v>
       </c>
       <c r="H42" s="9">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I42" s="9">
         <v>1.5</v>
       </c>
       <c r="J42" s="9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K42" s="9">
         <v>1</v>
@@ -3278,20 +3521,20 @@
         <v>1</v>
       </c>
       <c r="N42" s="9">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="O42" s="9">
         <v>1.5</v>
       </c>
       <c r="P42" s="9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Q42" s="9">
+        <v>1</v>
+      </c>
+      <c r="R42" s="9">
         <v>1.5</v>
       </c>
-      <c r="R42" s="9">
-        <v>1</v>
-      </c>
       <c r="S42" s="9">
         <v>1</v>
       </c>
@@ -3302,26 +3545,29 @@
         <v>1</v>
       </c>
       <c r="V42" s="9">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="W42" s="9">
         <v>1.5</v>
       </c>
       <c r="X42" s="9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Y42" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="9">
         <v>1.5</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B43" s="7">
-        <v>3</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7">
-        <v>3</v>
-      </c>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="7">
+        <v>3</v>
+      </c>
+      <c r="D43" s="7"/>
       <c r="E43" s="7">
         <v>3</v>
       </c>
@@ -3383,13 +3629,16 @@
         <v>3</v>
       </c>
       <c r="Y43" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z43" s="7">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B9:Y9"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="B9:Z9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
